--- a/biology/Médecine/Hôpital_de_référence_de_Sangmélima/Hôpital_de_référence_de_Sangmélima.xlsx
+++ b/biology/Médecine/Hôpital_de_référence_de_Sangmélima/Hôpital_de_référence_de_Sangmélima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_r%C3%A9f%C3%A9rence_de_Sangm%C3%A9lima</t>
+          <t>Hôpital_de_référence_de_Sangmélima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital de référence de Sangmélima, en abrégé HRS, est un hôpital public de deuxième catégorie à Sangmélima dans la région du Sud du Cameroun.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_r%C3%A9f%C3%A9rence_de_Sangm%C3%A9lima</t>
+          <t>Hôpital_de_référence_de_Sangmélima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire de l’hôpital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En abrégé, HRS[1], il est créé le 20 mars 2014 par décret N° 2014/101[2] et inauguré en  2015[3].
-Pendant les journées portes ouvertes tenues du 16 au 18 novembre 2021, le directeur de l'hôpital Dominique Noah Noah annonce son slogan au service des populations[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En abrégé, HRS, il est créé le 20 mars 2014 par décret N° 2014/101 et inauguré en  2015.
+Pendant les journées portes ouvertes tenues du 16 au 18 novembre 2021, le directeur de l'hôpital Dominique Noah Noah annonce son slogan au service des populations.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_r%C3%A9f%C3%A9rence_de_Sangm%C3%A9lima</t>
+          <t>Hôpital_de_référence_de_Sangmélima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnel
-Plateau technique
-Du 23 au 25 février 2022, l'hôpital possède une infrastructure de chirurgie laparoscopique présentée lors d'un atelier international de chirurgie laparoscopique[4].
-Equipement</t>
+          <t>Plateau technique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 23 au 25 février 2022, l'hôpital possède une infrastructure de chirurgie laparoscopique présentée lors d'un atelier international de chirurgie laparoscopique.
+</t>
         </is>
       </c>
     </row>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_r%C3%A9f%C3%A9rence_de_Sangm%C3%A9lima</t>
+          <t>Hôpital_de_référence_de_Sangmélima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +595,12 @@
           <t>Risques sanitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est une infrastructure située dans le quartier Bitom, dans la région du Sud Cameroun frontalière avec le Gabon, la Guinée équatoriale et le Congo[1].
-Dans la lutte contre le COVID-19, en 2020, il acquiert deux pavillons de 50 lits[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est une infrastructure située dans le quartier Bitom, dans la région du Sud Cameroun frontalière avec le Gabon, la Guinée équatoriale et le Congo.
+Dans la lutte contre le COVID-19, en 2020, il acquiert deux pavillons de 50 lits. 
 </t>
         </is>
       </c>
